--- a/HyPAT/backup_datafiles/o-ring_data_backup.xlsx
+++ b/HyPAT/backup_datafiles/o-ring_data_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVANGS\Documents\Permeation\Perm_GUI\internal_data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVANGS\Downloads\HyPAT-main Published (1.5.1.1) - Small Changes\HyPAT\backup_datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96381CD5-D56D-4F76-A3A8-641DD736ED0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD2AF10-EDE6-4C79-9893-8A34CBE9F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="1035" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15300" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -448,13 +448,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>19.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C2">
-        <v>17.88</v>
+        <v>16.48</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -462,13 +462,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>19.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="C3">
-        <v>16.48</v>
+        <v>17.88</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -528,6 +528,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
@@ -685,15 +694,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -701,13 +701,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0074C-5E58-4ACD-803C-56B893D28293}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340CA1E2-A2DD-4733-B3B3-0ABC159582C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340CA1E2-A2DD-4733-B3B3-0ABC159582C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0074C-5E58-4ACD-803C-56B893D28293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49480937-BEFD-4988-9758-93A3499552AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49480937-BEFD-4988-9758-93A3499552AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/HyPAT/backup_datafiles/o-ring_data_backup.xlsx
+++ b/HyPAT/backup_datafiles/o-ring_data_backup.xlsx
@@ -537,9 +537,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b5283cf4dfffaff109746742aa09de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" xmlns:ns3="ca77b916-f394-4de9-b274-c15ee8638632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="898ab104950e04c568cc6a94d04fd6c3" ns2:_="" ns3:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <xsd:import namespace="ca77b916-f394-4de9-b274-c15ee8638632"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -552,6 +553,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -593,6 +596,28 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0b78db39-37aa-4e28-bb7e-9642684d42d7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca77b916-f394-4de9-b274-c15ee8638632" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9bdfb1f9-b4f9-4545-a4bc-c42b1cd3b611}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2d7da570-499c-4ae8-bbfb-bca14132ce0c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -696,7 +721,12 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -709,21 +739,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0074C-5E58-4ACD-803C-56B893D28293}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFF20D10-36BB-42AD-AAD3-E28010B8B103}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
